--- a/IESE_2019_CIMI_indicator_list.xlsx
+++ b/IESE_2019_CIMI_indicator_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irka\Data_Science\Netology\Python\1_Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681627B1-AF2D-470A-B6F9-CBD6D50109FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCEB9D8-832C-4F7D-A631-312835FAA48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45A4DF2E-8581-459E-BA49-4928AEA2B339}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45A4DF2E-8581-459E-BA49-4928AEA2B339}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Dimensions" sheetId="2" r:id="rId1"/>
+    <sheet name="Weight" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dimensions!$A$1:$E$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="360">
   <si>
     <t>1,Secondary or higher education,Proportion of population with secondary and higher education,Euromonitor,Human Capital</t>
   </si>
@@ -1109,6 +1113,12 @@
   </si>
   <si>
     <t>WiFi Map app</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -1489,19 +1499,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C221A32A-F077-4E79-8764-5AF7DC9F7AE1}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="114" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1909,7 +1919,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1960,7 +1970,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2045,7 +2055,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2079,7 +2089,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2147,7 +2157,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2215,7 +2225,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2385,7 +2395,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2419,7 +2429,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2436,7 +2446,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="114" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2623,7 +2633,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="114" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2657,7 +2667,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2708,7 +2718,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2725,7 +2735,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2759,7 +2769,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2776,7 +2786,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="114" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2793,7 +2803,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2810,7 +2820,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2997,7 +3007,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3082,7 +3092,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3167,7 +3177,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3236,12 +3246,113 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E102" xr:uid="{C221A32A-F077-4E79-8764-5AF7DC9F7AE1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F7C235-8477-4451-A34E-492574F3F337}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D146E-7105-4481-A025-1EC7271B34AF}">
   <dimension ref="A1:B102"/>
   <sheetViews>
